--- a/inst/samples/Data4Test1/Students/STIDst4.xlsx
+++ b/inst/samples/Data4Test1/Students/STIDst4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omunet-my.sharepoint.com/personal/s21413e_omu_ac_jp/Documents/教務委員/ゼミMoodle/matching/学生/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1684bc3b7bd79ed3/Projects/omueconMatch/inst/samples/Data4Test1/Students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="6_{6565D39C-7EB4-D343-BCB6-F1DB8BD9C0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997A8DEC-E31B-854F-9EC2-F75A2611612A}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="6_{6565D39C-7EB4-D343-BCB6-F1DB8BD9C0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EC548A7-B491-7D4C-83E9-C77683139247}"/>
   <bookViews>
     <workbookView xWindow="11500" yWindow="860" windowWidth="17900" windowHeight="17040" xr2:uid="{56E0F391-1520-9245-91B6-31950EE167B6}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>メモ</t>
   </si>
   <si>
-    <t>氏名</t>
-  </si>
-  <si>
     <t>教員B</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>教員A</t>
+  </si>
+  <si>
+    <t>教員名</t>
   </si>
 </sst>
 </file>
@@ -143,7 +143,7 @@
     <sortCondition ref="B1:B4"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{04934990-04DD-7642-B796-4FEBFD4A0DEA}" name="氏名"/>
+    <tableColumn id="1" xr3:uid="{04934990-04DD-7642-B796-4FEBFD4A0DEA}" name="教員名"/>
     <tableColumn id="2" xr3:uid="{04ECF3C3-B7B4-6C48-9B35-42C5D40936C5}" name="希望順位"/>
     <tableColumn id="4" xr3:uid="{C984104F-A383-A743-9F4B-4685CEA30BA1}" name="メモ"/>
   </tableColumns>
@@ -450,9 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33A1E50-6F3A-074D-A578-56AEFEB339F9}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -463,7 +461,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -474,7 +472,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -482,7 +480,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -490,7 +488,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
